--- a/ikea.xlsx
+++ b/ikea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,122 +466,5274 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diameter pot tanaman </t>
+          <t>URL</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tinggi tanaman </t>
+          <t>Diameter pot tanaman</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Tinggi tanaman</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>No. artikel</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Paket</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Panjang</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Lebar</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Tinggi</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Berat Kotor</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Berat Bersih</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Volume per paket</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Ketinggian minimum</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Ketinggian maksimum</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SUCCULENT 8</t>
+          <t>CHRYSALIDOCARPUS LUTESCENS 27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tanaman hias, sukulen</t>
+          <t>Tanaman hias, palem (kuning)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>24900</t>
+          <t>179000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>112</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1609915588_00001084_S4.webp</t>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1609919646_00001103_S4.webp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8 cm</t>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/chrysalidocarpus-lutescens-27-art-00001103</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>10 cm</t>
+          <t>27 cm</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>000.010.84</t>
+          <t>100 cm</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
+          <t>000.011.03</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>4,58 kg</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>3,58 kg</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0,0729 l</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PACHIRA AQUATICA BRAIDED 17</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tanaman hias, pohon uang</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>119000</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1610084792_00001091_S4.webp</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/pachira-aquatica-braided-17-art-00001091</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>17 cm</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>70 cm</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>000.010.91</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1,79 kg</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1,29 kg</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0,0202 l</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CEREUS PERUVIANUS 30</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tanaman hias, kaktus koboi</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>299000</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1609918001_00001095_S4.webp</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/cereus-peruvianus-30-art-00001095</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>70 cm</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>000.010.95</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>11,9 kg</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>10,9 kg</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0,09 l</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DRACAENA MASSANGEANA 27</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tanaman hias, hanjuang hijau &amp; kuning</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>229000</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1609920228_00001104_S4.webp</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/dracaena-massangeana-27-art-00001104</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>27 cm</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>70 cm</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>000.011.04</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>4,01 kg</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>3,01 kg</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0,0583 l</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MONSTERA ANDASONII</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tanaman hias, janda bolong</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>39900</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1620703403_00001152_S4.webp</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/monstera-andasonii-art-00001152</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>17 cm</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>000.011.52</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0,5 Kg</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FICUS BONSAI</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tanaman hias</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>99900</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1620704576_00001150_S4.webp</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/ficus-bonsai-art-00001150</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>25 cm</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>000.011.50</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0,5 Kg</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SANSEVIERIA LAURENTII 15</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tanaman hias, lidah mertua</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>129000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1609919044_00001096_S4.webp</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/sansevieria-laurentii-15-art-00001096</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>15 cm</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>75 cm</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>000.010.96</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>3,01 kg</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2,01 kg</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0,0169 l</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CEMARA PUA PUA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tanaman hias, cemara pua pua</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>119000</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1638956396_00001208_S4.webp</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/cemara-pua-pua-art-00001208</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>20 cm</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>50 cm</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>000.012.08</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0,6 kg</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>FICUS LYRATA 10</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tanaman hias</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>79900</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1620704249_00001146_S4.webp</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/ficus-lyrata-10-art-00001146</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>20 cm</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>000.011.46</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0,5 Kg</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SANSEVIERIA LAURENTII 25</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tanaman hias, lidah mertua</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>199000</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1609919122_00001097_S4.webp</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/sansevieria-laurentii-25-art-00001097</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>25 cm</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>100 cm</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>000.010.97</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>5,61 kg</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>4,61 kg</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0,0625 l</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CALADIUM WHITE CHRISTMAS</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tanaman hias, keladi tissue</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>74900</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1609914201_00001074_S4.webp</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/caladium-white-christmas-art-00001074</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>15 cm</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>50 cm</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>000.010.74</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0,975 kg</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0,475 kg</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0,0113</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ANTHURIUM FLOWERS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tanaman hias</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>169000</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1620704615_00001151_S4.webp</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/anthurium-flowers-art-00001151</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>15 cm</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>25 cm</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>000.011.51</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0,5 Kg</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MONSTERA KING DELI</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tanaman hias</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>149000</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1620704858_00001154_S4.webp</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/monstera-king-deli-art-00001154</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>20 cm</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>50 cm</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>000.011.54</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0,5 Kg</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ENGLISH IVY 12</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Tanaman hias, ivy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>34900</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1609916330_00001086_S4.webp</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/english-ivy-12-art-00001086</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>12 cm</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>15 cm</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>000.010.86</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0,87 kg</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0,37 kg</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0,0022</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SANDERIANA CURLY 50</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Tanaman hias, suji</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>34900</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1611730363_00001105_S4.webp</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/sanderiana-curly-50-art-00001105</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>12 cm</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>50 cm</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>000.011.05</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0,58 kg</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0,08 kg</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0,0032 l</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>FICUS RED RUBY</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Tanaman hias</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>119000</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1620704525_00001149_S4.webp</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/ficus-red-ruby-art-00001149</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>20 cm</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>000.011.49</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>0,5 Kg</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CEMARA LILIN</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Tanaman hias, cemara lilin</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>119000</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1638956545_00001210_S4.webp</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/cemara-lilin-art-00001210</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>20 cm</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>50 cm</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>000.012.10</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>0,6 kg</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CEREUS PERUVIANUS 15</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Tanaman hias, kaktus koboi</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>69900</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1609917547_00001092_S4.webp</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/cereus-peruvianus-15-art-00001092</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>15 cm</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>000.010.92</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>2,01 kg</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>1,51 kg</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>0,0068 l</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PHILLO ROJO CONGO</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Tanaman hias</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>69900</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1620703882_00001137_S4.webp</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/phillo-rojo-congo-art-00001137</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>15 cm</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>25 cm</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>000.011.37</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>0,5 Kg</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PILEA</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Tanaman hias</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>99900</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1620704744_00001143_S4.webp</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/pilea-art-00001143</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>12 cm</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>12 cm</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>000.011.43</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>0,5 Kg</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FICUS TINEKE</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Tanaman hias</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>99900</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1620704481_00001148_S4.webp</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/ficus-tineke-art-00001148</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>20 cm</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>000.011.48</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>0,5 Kg</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>KLEINIA PETRAEA</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Tanaman hias, tanaman jade</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>19900</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1609915494_00001083_S4.webp</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/kleinia-petraea-art-00001083</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>8 cm</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>000.010.83</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>0,61 kg</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>0,11 kg</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>0,0006</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PHALAENOPSIS 15</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Tanaman hias, anggrek putih / ungu</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>199000</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1609916746_00001088_S4.webp</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/phalaenopsis-15-art-00001088</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>15 cm</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>000.010.88</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>1,11 kg</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>0,61 kg</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>0,0135</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CACTUS GYMNO</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Tanaman hias</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>89900</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1620704697_00001142_S4.webp</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/cactus-gymno-art-00001142</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>12 cm</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>16 cm</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>000.011.42</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>0,5 Kg</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>FICUS ELASTICA ROXB</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Tanaman hias</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>89900</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1620704437_00001147_S4.webp</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/ficus-elastica-roxb-art-00001147</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>20 cm</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>000.011.47</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>0,5 Kg</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>SYNGONIUM PODOPHYLLUM PINK</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Tanaman hias, sirih sirihan</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>59900</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1609914027_00001073_S4.webp</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/syngonium-podophyllum-pink-art-00001073</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>20 cm</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>000.010.73</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>0,75 k</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0,25 kg</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>0,002 l</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AGLAONEMA LIPSTIC 15</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Tanaman hias, sri rezeki</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>59900</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1609916922_00001089_S4.webp</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/aglaonema-lipstic-15-art-00001089</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>15 cm</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>000.010.89</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>1,15 kg</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>0,65 kg</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>0,0068</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DRACAENA SONG OF INDIA</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Tanaman hias, song of india</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>44900</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1609915162_00001081_S4.webp</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/dracaena-song-of-india-art-00001081</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>12 cm</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>40 cm</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>000.010.81</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>1,03 kg</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0,53 kg</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>0,0058</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PHILO CORE CONGO</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Tanaman hias</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>69900</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1620703820_00001136_S4.webp</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/philo-core-congo-art-00001136</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>15 cm</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>25 cm</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>000.011.36</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>0,5 Kg</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CEREUS PERUVIANUS 20</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Tanaman hias, kaktus koboi</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>129000</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1609917644_00001093_S4.webp</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/cereus-peruvianus-20-art-00001093</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>20 cm</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>70 cm</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>000.010.93</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>4,10 kg</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>3,60 kg</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>0,028 l</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CALATHEA INSIGNIS 20</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Tanaman hias, calatea bulu ayam</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>129000</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1609919308_00001098_S4.webp</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/calathea-insignis-20-art-00001098</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>20 cm</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>35 cm</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>000.010.98</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>3 kg</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>2,5 kg</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>0,014 l</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>EPIPREMNUM 8</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Tanaman hias, sirih gading (5 variasi)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>19900</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1609915317_00001082_S4.webp</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/epipremnum-8-art-00001082</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>000.010.82</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>0,64 kg</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>0,14 kg</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>0,0006</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SCINDAPSUS TURUS</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Tanaman hias</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>119000</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1620704113_00001145_S4.webp</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/scindapsus-turus-art-00001145</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>17 cm</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>20 cm</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>000.011.45</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>0,5 Kg</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CEMARA KIPAS</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Tanaman hias, cemara kipas</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>119000</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1638956512_00001209_S4.webp</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/cemara-kipas-art-00001209</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>20 cm</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>50 cm</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>000.012.09</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>0,6 kg</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>TRADESCANTIA SPATHACEA 12</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Tanaman hias, adam hawa kuning</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>39900</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1609913873_00001072_S4.webp</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/tradescantia-spathacea-12-art-00001072</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>12 cm</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>25 cm</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>000.010.72</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>0,905 kg</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>0,405 kg</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>0,0036 l</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>PEPEROMIA OBTU SIPOLIA 15</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Tanaman hias, teplan (hijau, kuning, merah, hitam)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>49900</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1609916494_00001087_S4.webp</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/peperomia-obtu-sipolia-15-art-00001087</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>12 cm</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>25 cm</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>000.010.87</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>1,31 kg</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>BABY CALATHEA</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Tanaman hias, calathea</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>39900</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1620703330_00001134_S4.webp</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/baby-calathea-art-00001134</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>8 cm</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>12 cm</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>000.011.34</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>0,5 Kg</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>CORDYLINE FRUTICOSA</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Tanaman hias. andong coklat</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>24900</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1609914760_00001078_S4.webp</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/cordyline-fruticosa-art-00001078</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>12 cm</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>20 cm</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>000.010.78</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>0,80 kg</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>0,30 kg</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>0,002</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>SUCCULENT 8</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Tanaman hias, sukulen</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>24900</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1609915588_00001084_S4.webp</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/succulent-8-art-00001084</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>8 cm</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>000.010.84</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr">
         <is>
           <t>0,67 kg</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P40" t="inlineStr">
         <is>
           <t>0,17 kg</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0001</t>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>0,001</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>TRADES SILVER</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Tanaman hias</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>24900</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1620702483_00001129_S4.webp</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/trades-silver-art-00001129</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>000.011.29</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>0,5 Kg</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>SYNGONIUM PODOPHYLLUM DARK PINK</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Tanaman hias, sirih sirihan</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>44900</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1609914291_00001075_S4.webp</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/syngonium-podophyllum-dark-pink-art-00001075</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>12 cm</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>25 cm</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>000.010.75</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>0,640 kg</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>0,140 kg</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>0,0036</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>80 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>CEREUS PERUVIANUS 24</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Tanaman hias, kaktus koboi</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>229000</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1609917816_00001094_S4.webp</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/cereus-peruvianus-24-art-00001094</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>24 cm</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>25 cm</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>000.010.94</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>6,46 kg</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>5,96 kg</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>0,403 l</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>70 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CALATHEA MACOYANA 20</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Tanaman hias, calatea merak</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>129000</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1609919469_00001099_S4.webp</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/calathea-macoyana-20-art-00001099</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>20 cm</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>25 cm</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>000.010.99</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>3 kg</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>2,5 kg</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>0,012 l</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>TRADESCANTIA SPATHACEA 12</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Tanaman hias, adam hawa pink</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>29900</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1620702307_00001127_S4.webp</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/tradescantia-spathacea-12-art-00001127</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>12 cm</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>25 cm</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>000.011.27</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>0,5 Kg</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>TRADES UNGU</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Tanaman hias, trades ungu</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>24900</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1620702419_00001128_S4.webp</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/trades-ungu-art-00001128</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>000.011.28</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>0,5 Kg</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>BABY AGLONEMA</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Tanaman hias</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>39900</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1620703271_00001133_S4.webp</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/baby-aglonema-art-00001133</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>8 cm</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>12 cm</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>000.011.33</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>0,5 Kg</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>PHILLO GREEN PRINCESS</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Tanaman hias</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>49900</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1620703476_00001135_S4.webp</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/phillo-green-princess-art-00001135</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>12 cm</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>25 cm</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>000.011.35</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>0,5 Kg</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>PHILLO RED CHERRY</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Tanaman hias</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>89900</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1620703737_00001138_S4.webp</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/phillo-red-cherry-art-00001138</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>15 cm</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>20 cm</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>000.011.38</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>0,5 Kg</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>PHILO BIRKIN REMAJA</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Tanaman hias</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>129000</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1620704796_00001139_S4.webp</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/philo-birkin-remaja-art-00001139</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>15 cm</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>000.011.39</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>0,5 Kg</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>HOYA</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Tanaman hias</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>59900</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1620704179_00001140_S4.webp</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/hoya-art-00001140</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>000.011.40</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>0,5 Kg</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>FITTONIA</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Tanaman hias</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>69900</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1620703971_00001141_S4.webp</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/fittonia-art-00001141</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>000.011.41</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>0,5 Kg</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>BEGONIA RED HEART</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Tanaman hias</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>99900</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1620704068_00001144_S4.webp</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/begonia-red-heart-art-00001144</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>15 cm</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>15 cm</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>000.011.44</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>0,5 Kg</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>CEMARA PERAK</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Tanaman hias, cemara perak</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>39900</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1638956574_00001211_S4.webp</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/cemara-perak-art-00001211</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>15 cm</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>20 cm</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>000.012.11</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>0,55 kg</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>EPIPREMNUM VARIEGATA 12</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Tanaman hias, sirih gading variegata</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>34900</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>/webroot/img/icons/bouncing-ball.svg?v=1704874576</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/epipremnum-variegata-12-art-00001085</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>12 cm</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>15 cm</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>000.010.85</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>1 kg</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>0,5 kg</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>0,0022</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>FICUS BENJAMINA VARIEGATA</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Tanaman hias, ginseng variegata</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>24900</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1609914868_00001079_S4.webp</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/ficus-benjamina-variegata-art-00001079</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>9 cm</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>15 cm</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>000.010.79</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>0,62 kg</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>0,12 kg</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>0,001</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ALOCASIA BAMBINO GREEN</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Tanaman hias, keladi tengkorak</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>69900</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1609914398_00001076_S4.webp</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/alocasia-bambino-green-art-00001076</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>15 cm</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>000.010.76</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>1,32 kg</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>0,820 kg</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>0,0068</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>TRADES VARIEGATA</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Tanaman hias</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>24900</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1620703227_00001130_S4.webp</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/trades-variegata-art-00001130</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>000.011.30</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>0,5 Kg</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>TRADESCANTIA NANOUK</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Tanaman hias, tradescantia</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>29900</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1609914481_00001077_S4.webp</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/tradescantia-nanouk-art-00001077</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>9 cm</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>000.010.77</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>0,65 kg</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>0,15 kg</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>0,0006</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>HOSTA GREEN</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Tanaman hias, hosta</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>24900</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1609915072_00001080_S4.webp</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/hosta-green-art-00001080</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>9 cm</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>15 cm</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>000.010.80</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>0,62 kg</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>0,12 kg</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>0,001</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>PACHIRA AQUATICA BRAIDED 15</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Tanaman hias, pohon uang</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>69900</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1609916997_00001090_S4.webp</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/pachira-aquatica-braided-15-art-00001090</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>15 cm</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>40 cm</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>000.010.90</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>1,79 kg</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>1,29 kg</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>0,009 l</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>HYPOTESIS</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Tanaman hias, hypotesis, 3 warna</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>34900</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1620702194_00001131_S4.webp</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/hypotesis-art-00001131</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>12 cm</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>000.011.31</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>0,5 Kg</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>UBI VARIEGATA</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Tanaman hias, ubi variegata</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>39900</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1620702355_00001132_S4.webp</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/ubi-variegata-art-00001132</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>15 cm</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>15 cm</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>000.011.32</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>0,5 Kg</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>MONSTERA KING DELI</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Tanaman hias</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>79900</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>https://d2xjmi1k71iy2m.cloudfront.net/dairyfarm/id/images/commons/1620703370_00001153_S4.webp</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>https://www.ikea.co.id/in/produk/dekorasi/tanaman-hias/monstera-king-deli-art-00001153</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>12 cm</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>30 cm</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>000.011.53</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>0,5 Kg</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>10 cm</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>30 cm</t>
         </is>
       </c>
     </row>
